--- a/IdentifyNewBikes/testData/data_hackathon.xlsx
+++ b/IdentifyNewBikes/testData/data_hackathon.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>

--- a/IdentifyNewBikes/testData/data_hackathon.xlsx
+++ b/IdentifyNewBikes/testData/data_hackathon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2303555_cognizant_com/Documents/Desktop/Eclipse codes/Hackathon/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303445\git\Hackathon_CTS\IdentifyNewBikes\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{8ED1279C-88B1-4B22-BD33-9D582899134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8AD7FA0-6954-4D0B-B5BE-64AC01CE7C94}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC7908B-12A4-462D-8B9D-B09E1E61C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2156E26-324A-4F72-9684-863E08B2C5A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F2156E26-324A-4F72-9684-863E08B2C5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -124,7 +124,7 @@
     <t>Login Details</t>
   </si>
   <si>
-    <t>sayan@gmail.com</t>
+    <t>soumyajit</t>
   </si>
 </sst>
 </file>
@@ -203,10 +203,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,17 +504,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41837B7-C0F3-40CF-81A5-33F325559B81}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875"/>
-    <col min="2" max="2" customWidth="true" width="35.6640625"/>
+    <col min="1" max="1" customWidth="true" width="26.54296875"/>
+    <col min="2" max="2" customWidth="true" width="35.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -534,7 +530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -542,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -550,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -558,7 +554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -566,7 +562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -574,7 +570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -582,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -603,57 +599,57 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.77734375"/>
+    <col min="1" max="1" customWidth="true" width="26.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -667,28 +663,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2339811B-35D3-48F9-A4A4-F28F7E9D40B5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.6640625"/>
+    <col min="1" max="1" customWidth="true" width="22.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{883745D9-F583-48F1-ABA8-ECD5C4F3F1A8}"/>
+    <hyperlink ref="A2" r:id="rId1" display="soumyajit@gmail.com" xr:uid="{883745D9-F583-48F1-ABA8-ECD5C4F3F1A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IdentifyNewBikes/testData/data_hackathon.xlsx
+++ b/IdentifyNewBikes/testData/data_hackathon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303445\git\Hackathon_CTS\IdentifyNewBikes\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC7908B-12A4-462D-8B9D-B09E1E61C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3D199E-15B5-48CA-B74F-1C87FFF43705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F2156E26-324A-4F72-9684-863E08B2C5A8}"/>
   </bookViews>
@@ -124,7 +124,7 @@
     <t>Login Details</t>
   </si>
   <si>
-    <t>soumyajit</t>
+    <t>soumyajit@hsu.com</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="soumyajit@gmail.com" xr:uid="{883745D9-F583-48F1-ABA8-ECD5C4F3F1A8}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{883745D9-F583-48F1-ABA8-ECD5C4F3F1A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IdentifyNewBikes/testData/data_hackathon.xlsx
+++ b/IdentifyNewBikes/testData/data_hackathon.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
